--- a/Data description_validated.xlsx
+++ b/Data description_validated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Dropbox\Research\Team\@_Scientific data_Game\Data Intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CourseWork\Data Science\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B8F69E-1133-4B3E-BF33-52E86D0B3202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D5342-A958-45D2-A22B-84E7F820955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="2" r:id="rId1"/>
@@ -716,46 +716,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -779,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,1093 +999,1093 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="22"/>
+    <col min="1" max="1" width="8.77734375" style="21"/>
     <col min="2" max="2" width="129" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>172</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="C36" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="C37" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="C38" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="C39" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
+      <c r="C40" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
+      <c r="C41" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="C42" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="C43" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
+      <c r="C44" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="C45" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="C46" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="C47" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="C48" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="C49" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="C50" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="C51" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="C52" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="C53" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="C54" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="C55" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="C56" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="C57" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="C58" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+      <c r="C59" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="C60" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="C61" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="C62" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+      <c r="C63" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="C64" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="C65" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="C66" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="C67" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+      <c r="C68" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="C69" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="C70" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="C71" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="C72" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+      <c r="C73" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="C74" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+      <c r="C75" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+      <c r="C76" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+      <c r="C77" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C78" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+      <c r="C78" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+      <c r="C79" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="C80" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="C81" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+      <c r="C82" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C83" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+      <c r="C83" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+      <c r="C84" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+      <c r="C85" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="C86" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="C87" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+      <c r="C88" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="C89" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="C90" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C91" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+      <c r="C91" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C92" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="C92" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C93" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="C93" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="C94" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C95" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="3"/>
+      <c r="C95" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
